--- a/angular/src/assets/sampleFiles/business/SalesTargetTmvFormatFile.xlsx
+++ b/angular/src/assets/sampleFiles/business/SalesTargetTmvFormatFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Format File" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Dealer</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Import Package</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -59,27 +56,19 @@
   </si>
   <si>
     <t>11-01-2022</t>
-  </si>
-  <si>
-    <t>11-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -133,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,9 +137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,23 +459,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,14 +484,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -517,22 +499,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,98 +523,83 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>